--- a/data/wp/2022_daily_Labuan.xlsx
+++ b/data/wp/2022_daily_Labuan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\source\repos\steveteoh.github.io\data\wp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89F4BC1-2BDB-44DC-A005-C99E5A8B65A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195FCC2-CC29-40C6-B737-9C189C6C807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{248F3845-387B-4976-A27A-26E6EFA90DBF}"/>
   </bookViews>
@@ -831,9 +831,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Feb 2022'!$B$1:$Z$1</c:f>
+              <c:f>'Feb 2022'!$B$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1-Feb Tue</c:v>
                 </c:pt>
@@ -908,16 +908,25 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25-Feb Fri</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26-Feb Sat</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27-Feb Sun</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28-Feb Mon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feb 2022'!$B$2:$Z$2</c:f>
+              <c:f>'Feb 2022'!$B$2:$AC$2</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -992,6 +1001,15 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3521</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4108</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,6 +1316,38 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1843478910670353E-2"/>
+                  <c:y val="3.1694940745084776E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D472-4185-B77D-5D1AD331DD78}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-59C1-4789-805C-E28DDDA0520E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1357,9 +1407,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Feb 2022'!$B$1:$Z$1</c:f>
+              <c:f>'Feb 2022'!$B$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1-Feb Tue</c:v>
                 </c:pt>
@@ -1434,16 +1484,25 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25-Feb Fri</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26-Feb Sat</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27-Feb Sun</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28-Feb Mon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feb 2022'!$B$3:$Z$3</c:f>
+              <c:f>'Feb 2022'!$B$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1518,6 +1577,15 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,7 +1664,7 @@
         <c:axId val="1982492800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4000"/>
+          <c:max val="4500"/>
           <c:min val="-500"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -18500,7 +18568,268 @@
       <sheetName val="20220226_Labuan"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>112</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>79</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>174</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>112</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>374</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>113</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>133</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>145</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>89</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>358</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>104</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>378</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>141</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>264</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>121</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>73</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>55</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -18513,7 +18842,268 @@
       <sheetName val="20220227_Labuan"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>89</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>196</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>117</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>425</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>131</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>133</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>113</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>148</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>374</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>111</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>382</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>169</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>311</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>129</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>62</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -18526,7 +19116,268 @@
       <sheetName val="20220228_Labuan"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>123</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>196</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>111</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>409</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>124</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>122</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>365</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>339</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>169</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>304</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>116</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>62</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -40113,7 +40964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5002E712-F943-4E18-ACA8-77CA42F550B5}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
@@ -40315,17 +41166,17 @@
         <f>SUM('[25]20220225_Labuan'!$E$2:$E$3174)</f>
         <v>3521</v>
       </c>
-      <c r="AA2" s="1" t="e">
+      <c r="AA2" s="1">
         <f>SUM('[26]20220226_Labuan'!$E$2:$E$3174)</f>
-        <v>#REF!</v>
+        <v>3806</v>
       </c>
-      <c r="AB2" s="1" t="e">
+      <c r="AB2" s="1">
         <f>SUM('[27]20220227_Labuan'!$E$2:$E$3174)</f>
-        <v>#REF!</v>
+        <v>4108</v>
       </c>
-      <c r="AC2" s="1" t="e">
+      <c r="AC2" s="1">
         <f>SUM('[28]20220228_Labuan'!$E$2:$E$3174)</f>
-        <v>#REF!</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -40431,17 +41282,17 @@
         <f t="shared" si="0"/>
         <v>1106</v>
       </c>
-      <c r="AA3" s="1" t="e">
+      <c r="AA3" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>285</v>
       </c>
-      <c r="AB3" s="1" t="e">
+      <c r="AB3" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>302</v>
       </c>
-      <c r="AC3" s="1" t="e">
+      <c r="AC3" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>-215</v>
       </c>
     </row>
   </sheetData>

--- a/data/wp/2022_daily_Labuan.xlsx
+++ b/data/wp/2022_daily_Labuan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\source\repos\steveteoh.github.io\data\wp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195FCC2-CC29-40C6-B737-9C189C6C807A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E6228-0A04-47EA-B257-43FFF1BDFC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{248F3845-387B-4976-A27A-26E6EFA90DBF}"/>
   </bookViews>
@@ -139,6 +139,8 @@
     <externalReference r:id="rId122"/>
     <externalReference r:id="rId123"/>
     <externalReference r:id="rId124"/>
+    <externalReference r:id="rId125"/>
+    <externalReference r:id="rId126"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -158,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
   <si>
     <t>Net increase/decrease</t>
   </si>
@@ -524,6 +526,12 @@
   </si>
   <si>
     <t>30-Nov Tue</t>
+  </si>
+  <si>
+    <t>1-Mar Tue</t>
+  </si>
+  <si>
+    <t>2-Mar Wed</t>
   </si>
 </sst>
 </file>
@@ -14725,6 +14733,554 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink121.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="20220301_Labuan"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>119</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>87</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>228</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>74</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>129</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>458</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>138</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>136</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>127</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>91</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>126</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>111</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>393</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>346</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>210</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>390</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>113</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>67</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink122.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="20220302_Labuan"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>87</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>227</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>73</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>126</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>448</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>128</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>119</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>91</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>118</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>109</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>367</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>89</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>207</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>208</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>390</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>112</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>67</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -19116,7 +19672,7 @@
       <sheetName val="20220228_Labuan"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="E2">
             <v>0</v>
@@ -40962,10 +41518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5002E712-F943-4E18-ACA8-77CA42F550B5}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40976,7 +41532,7 @@
     <col min="8" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -41061,8 +41617,14 @@
       <c r="AC1" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -41178,8 +41740,16 @@
         <f>SUM('[28]20220228_Labuan'!$E$2:$E$3174)</f>
         <v>3893</v>
       </c>
+      <c r="AD2" s="1">
+        <f>SUM('[121]20220301_Labuan'!$E$2:$E$3174)</f>
+        <v>4282</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>SUM('[122]20220302_Labuan'!$E$2:$E$3174)</f>
+        <v>3964</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -41191,7 +41761,7 @@
         <v>-2</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:AC3" si="0">D2-C2</f>
+        <f t="shared" ref="D3:AE3" si="0">D2-C2</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
@@ -41294,9 +41864,17 @@
         <f t="shared" si="0"/>
         <v>-215</v>
       </c>
+      <c r="AD3" s="1">
+        <f t="shared" si="0"/>
+        <v>389</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" si="0"/>
+        <v>-318</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:AC3">
+  <conditionalFormatting sqref="B3:AE3">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
